--- a/Příklad 3.xlsx
+++ b/Příklad 3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gminasjan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gminasjan\Desktop\pacienti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1911C6CF-26D8-41C5-A785-7BE1AF5F0EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0713C6D1-077D-4BE7-BFAE-49FBA4BA8208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="volby" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,12 @@
     <sheet name="sinus" sheetId="6" r:id="rId4"/>
     <sheet name="boxplot" sheetId="7" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">boxplot!$A$2:$A$475</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">boxplot!$B$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">boxplot!$B$2:$B$475</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
-  <pivotCaches>
-    <pivotCache cacheId="49" r:id="rId6"/>
-  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -236,123 +238,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF999999"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF999999"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF999999"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -361,7 +252,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -369,15 +260,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -397,848 +279,108 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="cs-CZ"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>rozpocet!$B$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Rozpočet</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>rozpocet!$A$3:$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>Praha</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Plzeň</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Ostrava</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Brno</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Liberec</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Karlovy vary</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Pardubice</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Olomouc</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>rozpocet!$B$3:$B$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>20202171.234655134</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4513309.073272299</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10203700.067409942</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7427484.3203113675</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>17528907.747370802</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7892788.9855037061</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12465893.761902027</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9313460.1166102812</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7F51-423B-A083-F2DC9E2489C4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="50"/>
-        <c:axId val="1728150191"/>
-        <c:axId val="1728139631"/>
-      </c:barChart>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>rozpocet!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Vyčerpáno</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>rozpocet!$A$3:$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>Praha</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Plzeň</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Ostrava</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Brno</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Liberec</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Karlovy vary</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Pardubice</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Olomouc</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>rozpocet!$C$3:$C$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>18714462.90070245</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4335677.7274996899</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9369765.5511144754</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7425434.8932424625</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16492265.61515408</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7694064.1233249512</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12038067.409236411</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9550620.7862019502</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7F51-423B-A083-F2DC9E2489C4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="200"/>
-        <c:axId val="1966386575"/>
-        <c:axId val="1966364975"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1728150191"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1728139631"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1728139631"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1728150191"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1966364975"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="t"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1966386575"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="1966386575"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1966364975"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="cs-CZ"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Gantt!$E$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Počet dnů</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Gantt!$C$3:$D$8</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="6"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>01.07.2018</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>06.07.2018</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>13.07.2018</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>04.07.2018</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>08.07.2018</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>22.07.2018</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Projekt</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Základová deska</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Přenos stavby na desku</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Nákup materiálu</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Konstrukce stavby v hale</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Okna, podlahy</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Gantt!$E$3:$E$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D570-43BF-BFA0-3CD39D7DD962}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="1676085696"/>
-        <c:axId val="1676084256"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1676085696"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1676084256"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1676084256"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1676085696"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.2</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{7FC179CD-7A63-4849-B671-EC751BA48018}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:v>vek</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataLabels pos="l">
+            <cx:numFmt formatCode="# ##0,00" sourceLinked="0"/>
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+            <cx:separator>, </cx:separator>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>pohlaví</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="cs-CZ" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>pohlaví</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Věk</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="cs-CZ" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>Věk</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1281,48 +423,8 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1333,7 +435,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -1356,7 +458,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
@@ -1379,7 +481,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="1000"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -1387,11 +489,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -1416,36 +518,53 @@
         </a:solidFill>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -1460,10 +579,8 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -1471,9 +588,12 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="lt1"/>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
@@ -1483,13 +603,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1508,41 +628,38 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:dataTable>
   <cs:downBar>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1591,12 +708,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -1628,8 +739,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1684,7 +795,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:legend>
   <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
@@ -1723,7 +834,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:seriesAxis>
   <cs:seriesLine>
     <cs:lnRef idx="0"/>
@@ -1733,12 +844,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
+          <a:srgbClr val="D9D9D9"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -1754,7 +862,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1770,7 +878,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1784,27 +892,26 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1818,7 +925,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
@@ -1827,517 +934,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -2471,42 +1067,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Graf 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AD7D90E-0762-3DAD-E568-7302CCC9A5B2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2515,15 +1075,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
+      <xdr:colOff>514350</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2553,7 +1113,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1152525" y="1876425"/>
+          <a:off x="1123950" y="1857375"/>
           <a:ext cx="4581525" cy="2752725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2571,42 +1131,6 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Graf 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B047C4EC-C566-3F4C-1D13-562EDA73FD17}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2802,882 +1326,85 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>424961</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>87922</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>461596</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>80595</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Graf 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FF87417-9DB1-4A58-B56E-D35A9257F104}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2249365" y="849922"/>
+              <a:ext cx="6117981" cy="3802673"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>Tento graf není ve vaší verzi aplikace Excel dostupný.
+Pokud upravíte tento obrazec nebo tento sešit uložíte v jiném formátu souboru, pak se graf trvale poruší.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Minasjan, Garegin" refreshedDate="45612.477175925924" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="137" xr:uid="{443FFE33-B82A-4A91-8941-F628EF05AAC9}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:D138" sheet="volby"/>
-  </cacheSource>
-  <cacheFields count="4">
-    <cacheField name="pohlavi" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="strana" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="počet" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
-    </cacheField>
-    <cacheField name="Vytvořte graf s vysledkem voleb, který bude současně kopírovat genederové rozložení populace (viz ukázka)." numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="137">
-  <r>
-    <s v="z"/>
-    <s v="CSSD"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="z"/>
-    <s v="Pirati"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="m"/>
-    <s v="ODS"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="m"/>
-    <s v="STAN"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="z"/>
-    <s v="KSCM"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="z"/>
-    <s v="ANO"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="m"/>
-    <s v="ODS"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="m"/>
-    <s v="ANO"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="m"/>
-    <s v="ANO"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="m"/>
-    <s v="Pirati"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="z"/>
-    <s v="STAN"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="z"/>
-    <s v="ANO"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="z"/>
-    <s v="ODS"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="m"/>
-    <s v="Pirati"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="m"/>
-    <s v="ANO"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="z"/>
-    <s v="CSSD"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="m"/>
-    <s v="KSCM"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="m"/>
-    <s v="KSCM"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="z"/>
-    <s v="Pirati"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="m"/>
-    <s v="Pirati"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="z"/>
-    <s v="Pirati"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="m"/>
-    <s v="ODS"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="z"/>
-    <s v="SPD"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="m"/>
-    <s v="ANO"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="m"/>
-    <s v="CSSD"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="m"/>
-    <s v="STAN"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="z"/>
-    <s v="STAN"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="z"/>
-    <s v="ODS"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="m"/>
-    <s v="KSCM"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="z"/>
-    <s v="ANO"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="m"/>
-    <s v="ANO"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="m"/>
-    <s v="ODS"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="m"/>
-    <s v="KSCM"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="z"/>
-    <s v="KSCM"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="m"/>
-    <s v="SPD"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="z"/>
-    <s v="ODS"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="z"/>
-    <s v="ANO"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="z"/>
-    <s v="CSSD"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="z"/>
-    <s v="STAN"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="z"/>
-    <s v="ODS"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="z"/>
-    <s v="ANO"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="m"/>
-    <s v="SPD"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="z"/>
-    <s v="ANO"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="z"/>
-    <s v="STAN"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="z"/>
-    <s v="SPD"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="z"/>
-    <s v="Pirati"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="z"/>
-    <s v="CSSD"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="m"/>
-    <s v="KSCM"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="m"/>
-    <s v="STAN"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="m"/>
-    <s v="CSSD"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="m"/>
-    <s v="ANO"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="z"/>
-    <s v="ODS"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="m"/>
-    <s v="STAN"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="z"/>
-    <s v="CSSD"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="z"/>
-    <s v="CSSD"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="m"/>
-    <s v="SPD"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="m"/>
-    <s v="ANO"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="m"/>
-    <s v="ANO"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="m"/>
-    <s v="STAN"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="m"/>
-    <s v="CSSD"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="m"/>
-    <s v="STAN"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="m"/>
-    <s v="KSCM"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="z"/>
-    <s v="CSSD"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="z"/>
-    <s v="ANO"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="z"/>
-    <s v="CSSD"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="z"/>
-    <s v="STAN"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="z"/>
-    <s v="Pirati"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="m"/>
-    <s v="ODS"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="m"/>
-    <s v="CSSD"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="m"/>
-    <s v="SPD"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="z"/>
-    <s v="ANO"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="m"/>
-    <s v="CSSD"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="z"/>
-    <s v="KSCM"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="m"/>
-    <s v="CSSD"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="z"/>
-    <s v="CSSD"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="z"/>
-    <s v="KSCM"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="m"/>
-    <s v="KSCM"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="m"/>
-    <s v="STAN"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="m"/>
-    <s v="KSCM"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="m"/>
-    <s v="Pirati"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="z"/>
-    <s v="STAN"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="z"/>
-    <s v="SPD"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="z"/>
-    <s v="KSCM"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="z"/>
-    <s v="Pirati"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="m"/>
-    <s v="ANO"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="z"/>
-    <s v="STAN"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="m"/>
-    <s v="KSCM"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="z"/>
-    <s v="Pirati"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="z"/>
-    <s v="KSCM"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="z"/>
-    <s v="CSSD"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="z"/>
-    <s v="SPD"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="m"/>
-    <s v="ODS"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="m"/>
-    <s v="Pirati"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="m"/>
-    <s v="ODS"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="m"/>
-    <s v="ANO"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="m"/>
-    <s v="KSCM"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="m"/>
-    <s v="Pirati"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="m"/>
-    <s v="CSSD"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="z"/>
-    <s v="ANO"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="z"/>
-    <s v="Pirati"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="z"/>
-    <s v="CSSD"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="z"/>
-    <s v="ODS"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="m"/>
-    <s v="CSSD"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="z"/>
-    <s v="CSSD"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="z"/>
-    <s v="ANO"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="m"/>
-    <s v="CSSD"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="z"/>
-    <s v="CSSD"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="m"/>
-    <s v="KSCM"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="m"/>
-    <s v="ODS"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="m"/>
-    <s v="ODS"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="m"/>
-    <s v="STAN"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="z"/>
-    <s v="ODS"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="m"/>
-    <s v="ANO"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="z"/>
-    <s v="KSCM"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="m"/>
-    <s v="STAN"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="m"/>
-    <s v="STAN"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="m"/>
-    <s v="Pirati"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="m"/>
-    <s v="ANO"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="m"/>
-    <s v="STAN"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="m"/>
-    <s v="ANO"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="z"/>
-    <s v="Pirati"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="m"/>
-    <s v="ODS"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="z"/>
-    <s v="Pirati"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="m"/>
-    <s v="CSSD"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="z"/>
-    <s v="ODS"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="m"/>
-    <s v="KSCM"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="m"/>
-    <s v="Pirati"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="m"/>
-    <s v="ODS"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="z"/>
-    <s v="Pirati"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="m"/>
-    <s v="KSCM"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="m"/>
-    <s v="ANO"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="z"/>
-    <s v="Pirati"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="z"/>
-    <s v="ANO"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="m"/>
-    <s v="Pirati"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="z"/>
-    <s v="ODS"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="m"/>
-    <s v="ODS"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="m"/>
-    <s v="ODS"/>
-    <n v="1"/>
-    <m/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0BA94F8E-0873-4BED-8644-9763D58C4D7E}" name="Kontingenční tabulka16" cacheId="49" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="V4:X21" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="4">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3944,18 +1671,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="List1"/>
-  <dimension ref="A1:X138"/>
+  <dimension ref="A1:D138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V4" sqref="V4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -3969,7 +1698,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -3980,7 +1709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -3991,7 +1720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -4001,11 +1730,8 @@
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="V4" s="7"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="9"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -4015,11 +1741,8 @@
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="V5" s="10"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="12"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -4029,11 +1752,8 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="V6" s="10"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="12"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -4043,11 +1763,8 @@
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="V7" s="10"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="12"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -4057,11 +1774,8 @@
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="V8" s="10"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="12"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -4071,11 +1785,8 @@
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="V9" s="10"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="12"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -4085,11 +1796,8 @@
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="V10" s="10"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="12"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -4099,11 +1807,8 @@
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="V11" s="10"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="12"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -4113,11 +1818,8 @@
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="V12" s="10"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="12"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -4127,11 +1829,8 @@
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="V13" s="10"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="12"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -4141,11 +1840,8 @@
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="V14" s="10"/>
-      <c r="W14" s="11"/>
-      <c r="X14" s="12"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -4155,11 +1851,8 @@
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="V15" s="10"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="12"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -4169,11 +1862,8 @@
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="V16" s="10"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="12"/>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -4183,11 +1873,8 @@
       <c r="C17">
         <v>1</v>
       </c>
-      <c r="V17" s="10"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="12"/>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -4197,11 +1884,8 @@
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="V18" s="10"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="12"/>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -4211,11 +1895,8 @@
       <c r="C19">
         <v>1</v>
       </c>
-      <c r="V19" s="10"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="12"/>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -4225,11 +1906,8 @@
       <c r="C20">
         <v>1</v>
       </c>
-      <c r="V20" s="10"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="12"/>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -4239,11 +1917,8 @@
       <c r="C21">
         <v>1</v>
       </c>
-      <c r="V21" s="13"/>
-      <c r="W21" s="14"/>
-      <c r="X21" s="15"/>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -4254,7 +1929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -4265,7 +1940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -4276,7 +1951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -4287,7 +1962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -4298,7 +1973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -4309,7 +1984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -4320,7 +1995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -4331,7 +2006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -4342,7 +2017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -4353,7 +2028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -5535,7 +3210,7 @@
     <sortCondition ref="N3:N139"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5545,7 +3220,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5665,8 +3340,8 @@
   <sheetPr codeName="List3"/>
   <dimension ref="C2:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5772,7 +3447,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5950,8 +3625,8 @@
   <sheetPr codeName="List5"/>
   <dimension ref="A1:G475"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="C6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
